--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3803.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3803.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.867998460141552</v>
+        <v>1.440382361412048</v>
       </c>
       <c r="B1">
-        <v>2.158219197127786</v>
+        <v>5.685306549072266</v>
       </c>
       <c r="C1">
-        <v>2.730409788244919</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>4.047643606544348</v>
+        <v>2.692667245864868</v>
       </c>
       <c r="E1">
-        <v>0.8009921088828067</v>
+        <v>1.608485221862793</v>
       </c>
     </row>
   </sheetData>
